--- a/files/reports/2021-10-17/report.xlsx
+++ b/files/reports/2021-10-17/report.xlsx
@@ -910,13 +910,13 @@
         <v>317</v>
       </c>
       <c r="C18">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D18">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1">
-        <v>0.7508</v>
+        <v>0.7571</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1573,13 +1573,13 @@
         <v>3135</v>
       </c>
       <c r="C57">
-        <v>2139</v>
+        <v>2145</v>
       </c>
       <c r="D57">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E57" s="1">
-        <v>0.6823</v>
+        <v>0.6842</v>
       </c>
     </row>
     <row r="58" spans="1:5">
